--- a/medicine/Mort/Nécropole_nationale_de_Villiers-Saint-Georges/Nécropole_nationale_de_Villiers-Saint-Georges.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Villiers-Saint-Georges/Nécropole_nationale_de_Villiers-Saint-Georges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Villiers-Saint-Georges</t>
+          <t>Nécropole_nationale_de_Villiers-Saint-Georges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Villiers-Saint-Georges est un cimetière militaire français de la Première Guerre mondiale, situé sur le territoire de la commune de Villiers-Saint-Georges, dans le département de Seine-et-Marne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Villiers-Saint-Georges</t>
+          <t>Nécropole_nationale_de_Villiers-Saint-Georges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière militaire de Villiers-Saint-Georges a été créé en 1914, pour ensevelir les corps de soldats français tombés au cours de la bataille de la Marne. En 1922, on y a inhumé des corps de soldats tombés au cours de la seconde bataille de la Marne, de 1918[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière militaire de Villiers-Saint-Georges a été créé en 1914, pour ensevelir les corps de soldats français tombés au cours de la bataille de la Marne. En 1922, on y a inhumé des corps de soldats tombés au cours de la seconde bataille de la Marne, de 1918.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Villiers-Saint-Georges</t>
+          <t>Nécropole_nationale_de_Villiers-Saint-Georges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette petite nécropole de 0,11 ha abrite 61 dépouilles de soldats français, 52 en tombes individuelles et 9 en ossuaire[2]. Un monument aux morts de la guerre 1914-1918 a été érigé dans le cimetière[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette petite nécropole de 0,11 ha abrite 61 dépouilles de soldats français, 52 en tombes individuelles et 9 en ossuaire. Un monument aux morts de la guerre 1914-1918 a été érigé dans le cimetière.
 </t>
         </is>
       </c>
